--- a/Code/Results/Cases/Case_0_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_99/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.261610744049944</v>
+        <v>5.198314948599565</v>
       </c>
       <c r="D2">
-        <v>9.292077149333915</v>
+        <v>7.897489847046764</v>
       </c>
       <c r="E2">
-        <v>12.98301512316752</v>
+        <v>8.93155618175153</v>
       </c>
       <c r="F2">
-        <v>42.19169576534117</v>
+        <v>70.52646320639889</v>
       </c>
       <c r="G2">
-        <v>1.945308305386301</v>
+        <v>3.906213214409895</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.4264391361601</v>
+        <v>53.84651163312628</v>
       </c>
       <c r="J2">
-        <v>7.476231976796502</v>
+        <v>9.602474674615609</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.755562963511704</v>
+        <v>8.540587365727752</v>
       </c>
       <c r="M2">
-        <v>100.6876800826891</v>
+        <v>66.37944984824257</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.471940330754451</v>
+        <v>5.052345454364529</v>
       </c>
       <c r="D3">
-        <v>8.292576084940304</v>
+        <v>7.863146849621405</v>
       </c>
       <c r="E3">
-        <v>11.88514512345556</v>
+        <v>8.657496921354131</v>
       </c>
       <c r="F3">
-        <v>37.86563631544492</v>
+        <v>71.45863115067127</v>
       </c>
       <c r="G3">
-        <v>2.001455980317903</v>
+        <v>3.916898525676623</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>28.07372000952501</v>
+        <v>54.54113175324464</v>
       </c>
       <c r="J3">
-        <v>6.748626918883052</v>
+        <v>9.659684814723612</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.010179533224203</v>
+        <v>8.501297239242664</v>
       </c>
       <c r="M3">
-        <v>92.33027221930527</v>
+        <v>63.71465339034275</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.00290936581148</v>
+        <v>4.963110341199064</v>
       </c>
       <c r="D4">
-        <v>7.712484339804345</v>
+        <v>7.846607481981634</v>
       </c>
       <c r="E4">
-        <v>11.21757588016141</v>
+        <v>8.485422718989593</v>
       </c>
       <c r="F4">
-        <v>36.35841621753633</v>
+        <v>72.06856612094353</v>
       </c>
       <c r="G4">
-        <v>2.032870960747839</v>
+        <v>3.923721037419392</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.11382935517971</v>
+        <v>54.9948945358271</v>
       </c>
       <c r="J4">
-        <v>6.325128123012047</v>
+        <v>9.697523365489671</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.564642164176445</v>
+        <v>8.478792269695928</v>
       </c>
       <c r="M4">
-        <v>87.30036436188331</v>
+        <v>62.02019375725468</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.813143651368902</v>
+        <v>4.92689865809255</v>
       </c>
       <c r="D5">
-        <v>7.480569477238529</v>
+        <v>7.840996528909931</v>
       </c>
       <c r="E5">
-        <v>10.94440486909203</v>
+        <v>8.414425498958318</v>
       </c>
       <c r="F5">
-        <v>35.90118010727241</v>
+        <v>72.32642482199192</v>
       </c>
       <c r="G5">
-        <v>2.04518734431363</v>
+        <v>3.926567825991617</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>26.8365727712978</v>
+        <v>55.18656710032047</v>
       </c>
       <c r="J5">
-        <v>6.155409020047776</v>
+        <v>9.713619044758612</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.383819935948079</v>
+        <v>8.470029273197541</v>
       </c>
       <c r="M5">
-        <v>85.2528074200918</v>
+        <v>61.31571528457734</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.781660714398797</v>
+        <v>4.920896552811271</v>
       </c>
       <c r="D6">
-        <v>7.442247462561986</v>
+        <v>7.840132558985211</v>
       </c>
       <c r="E6">
-        <v>10.89891778379574</v>
+        <v>8.402586060131952</v>
       </c>
       <c r="F6">
-        <v>35.83373687582129</v>
+        <v>72.36980004198553</v>
       </c>
       <c r="G6">
-        <v>2.047209119157531</v>
+        <v>3.927044574819644</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.79665381101963</v>
+        <v>55.2187998544518</v>
       </c>
       <c r="J6">
-        <v>6.127337189769328</v>
+        <v>9.716332402735102</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.3537905135919</v>
+        <v>8.468598843414913</v>
       </c>
       <c r="M6">
-        <v>84.91245255930662</v>
+        <v>61.19791498867772</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.00034718243228</v>
+        <v>4.962621288099344</v>
       </c>
       <c r="D7">
-        <v>7.709342458682945</v>
+        <v>7.846527260136887</v>
       </c>
       <c r="E7">
-        <v>11.21389916079181</v>
+        <v>8.484468659849419</v>
       </c>
       <c r="F7">
-        <v>36.35166058962787</v>
+        <v>72.07200620037626</v>
       </c>
       <c r="G7">
-        <v>2.033038747367302</v>
+        <v>3.923759159720765</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.10966425117637</v>
+        <v>54.99745224629395</v>
       </c>
       <c r="J7">
-        <v>6.322830620783567</v>
+        <v>9.697737706773076</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.562202841665032</v>
+        <v>8.478672436135405</v>
       </c>
       <c r="M7">
-        <v>87.27276470198288</v>
+        <v>62.01074852110496</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.98399949119563</v>
+        <v>5.147935400058694</v>
       </c>
       <c r="D8">
-        <v>8.937345614044945</v>
+        <v>7.884696463454653</v>
       </c>
       <c r="E8">
-        <v>12.60095298356095</v>
+        <v>8.837895274092347</v>
       </c>
       <c r="F8">
-        <v>40.42091173648541</v>
+        <v>70.83998488047506</v>
       </c>
       <c r="G8">
-        <v>1.965526134614543</v>
+        <v>3.90984365954376</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>30.0244394606709</v>
+        <v>54.08029893371777</v>
       </c>
       <c r="J8">
-        <v>7.218182124370684</v>
+        <v>9.621634491465652</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.494221098890451</v>
+        <v>8.52670453121611</v>
       </c>
       <c r="M8">
-        <v>97.76661386200243</v>
+        <v>65.47309843164243</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.34619891907551</v>
+        <v>5.51217719704173</v>
       </c>
       <c r="D9">
-        <v>12.08575763802498</v>
+        <v>7.996176813516407</v>
       </c>
       <c r="E9">
-        <v>15.69292530131627</v>
+        <v>9.497651815102051</v>
       </c>
       <c r="F9">
-        <v>60.26135455249485</v>
+        <v>68.72919080384573</v>
       </c>
       <c r="G9">
-        <v>1.775238809501132</v>
+        <v>3.884596223187341</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>45.18687037782787</v>
+        <v>52.50269999817293</v>
       </c>
       <c r="J9">
-        <v>9.511904571513632</v>
+        <v>9.494183864829669</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.69095686554126</v>
+        <v>8.633710855245027</v>
       </c>
       <c r="M9">
-        <v>122.2459903767649</v>
+        <v>71.775380337377</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.34619891907551</v>
+        <v>5.777485499830691</v>
       </c>
       <c r="D10">
-        <v>12.08575763802498</v>
+        <v>8.101023762939075</v>
       </c>
       <c r="E10">
-        <v>15.69292530131627</v>
+        <v>9.958354598976525</v>
       </c>
       <c r="F10">
-        <v>60.26135455249485</v>
+        <v>67.37498966563457</v>
       </c>
       <c r="G10">
-        <v>1.775238809501132</v>
+        <v>3.867239571461962</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.18687037782787</v>
+        <v>51.4852720846751</v>
       </c>
       <c r="J10">
-        <v>9.511904571513632</v>
+        <v>9.414242840509178</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.69095686554126</v>
+        <v>8.720101443480219</v>
       </c>
       <c r="M10">
-        <v>122.2459903767649</v>
+        <v>76.08102422280987</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.34619891907551</v>
+        <v>5.89715619657213</v>
       </c>
       <c r="D11">
-        <v>12.08575763802498</v>
+        <v>8.153792122913559</v>
       </c>
       <c r="E11">
-        <v>15.69292530131627</v>
+        <v>10.16208039864228</v>
       </c>
       <c r="F11">
-        <v>60.26135455249485</v>
+        <v>66.80420437405306</v>
       </c>
       <c r="G11">
-        <v>1.775238809501132</v>
+        <v>3.859590807414081</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>45.18687037782787</v>
+        <v>51.0548811490119</v>
       </c>
       <c r="J11">
-        <v>9.511904571513632</v>
+        <v>9.380951529969979</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.69095686554126</v>
+        <v>8.761081897178613</v>
       </c>
       <c r="M11">
-        <v>122.2459903767649</v>
+        <v>77.96499559874977</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.34619891907551</v>
+        <v>5.942287124482649</v>
       </c>
       <c r="D12">
-        <v>12.08575763802498</v>
+        <v>8.174507903189186</v>
       </c>
       <c r="E12">
-        <v>15.69292530131627</v>
+        <v>10.23833982501721</v>
       </c>
       <c r="F12">
-        <v>60.26135455249485</v>
+        <v>66.59480907937551</v>
       </c>
       <c r="G12">
-        <v>1.775238809501132</v>
+        <v>3.85672892668174</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>45.18687037782787</v>
+        <v>50.89672743809314</v>
       </c>
       <c r="J12">
-        <v>9.511904571513632</v>
+        <v>9.368796462227612</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.69095686554126</v>
+        <v>8.7768408801494</v>
       </c>
       <c r="M12">
-        <v>122.2459903767649</v>
+        <v>78.66739442449371</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.34619891907551</v>
+        <v>5.932576214698847</v>
       </c>
       <c r="D13">
-        <v>12.08575763802498</v>
+        <v>8.170013718318614</v>
       </c>
       <c r="E13">
-        <v>15.69292530131627</v>
+        <v>10.22195611129865</v>
       </c>
       <c r="F13">
-        <v>60.26135455249485</v>
+        <v>66.63960188133322</v>
       </c>
       <c r="G13">
-        <v>1.775238809501132</v>
+        <v>3.85734376342523</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>45.18687037782787</v>
+        <v>50.9305713242622</v>
       </c>
       <c r="J13">
-        <v>9.511904571513632</v>
+        <v>9.371394026998479</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.69095686554126</v>
+        <v>8.773436218898354</v>
       </c>
       <c r="M13">
-        <v>122.2459903767649</v>
+        <v>78.51661424811897</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.34619891907551</v>
+        <v>5.900873078331341</v>
       </c>
       <c r="D14">
-        <v>12.08575763802498</v>
+        <v>8.15548170416252</v>
       </c>
       <c r="E14">
-        <v>15.69292530131627</v>
+        <v>10.16837232699514</v>
       </c>
       <c r="F14">
-        <v>60.26135455249485</v>
+        <v>66.78684058438226</v>
       </c>
       <c r="G14">
-        <v>1.775238809501132</v>
+        <v>3.859354672163567</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>45.18687037782787</v>
+        <v>51.04177205776024</v>
       </c>
       <c r="J14">
-        <v>9.511904571513632</v>
+        <v>9.379942416488667</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.69095686554126</v>
+        <v>8.762373582977196</v>
       </c>
       <c r="M14">
-        <v>122.2459903767649</v>
+        <v>78.02300463488999</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.34619891907551</v>
+        <v>5.881428705350233</v>
       </c>
       <c r="D15">
-        <v>12.08575763802498</v>
+        <v>8.146676046138026</v>
       </c>
       <c r="E15">
-        <v>15.69292530131627</v>
+        <v>10.13543392984864</v>
       </c>
       <c r="F15">
-        <v>60.26135455249485</v>
+        <v>66.87791495156651</v>
       </c>
       <c r="G15">
-        <v>1.775238809501132</v>
+        <v>3.860590880834189</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>45.18687037782787</v>
+        <v>51.11051921220986</v>
       </c>
       <c r="J15">
-        <v>9.511904571513632</v>
+        <v>9.385237663794896</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.69095686554126</v>
+        <v>8.755628696387985</v>
       </c>
       <c r="M15">
-        <v>122.2459903767649</v>
+        <v>77.71921200541398</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.34619891907551</v>
+        <v>5.769640784662915</v>
       </c>
       <c r="D16">
-        <v>12.08575763802498</v>
+        <v>8.09767769509836</v>
       </c>
       <c r="E16">
-        <v>15.69292530131627</v>
+        <v>9.944918853106657</v>
       </c>
       <c r="F16">
-        <v>60.26135455249485</v>
+        <v>67.41322257252543</v>
       </c>
       <c r="G16">
-        <v>1.775238809501132</v>
+        <v>3.867744322709319</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.18687037782787</v>
+        <v>51.51406540582175</v>
       </c>
       <c r="J16">
-        <v>9.511904571513632</v>
+        <v>9.416481167571055</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.69095686554126</v>
+        <v>8.717456999987983</v>
       </c>
       <c r="M16">
-        <v>122.2459903767649</v>
+        <v>75.95637405744843</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.34619891907551</v>
+        <v>5.700772277676957</v>
       </c>
       <c r="D17">
-        <v>12.08575763802498</v>
+        <v>8.068921558010032</v>
       </c>
       <c r="E17">
-        <v>15.69292530131627</v>
+        <v>9.826510998177765</v>
       </c>
       <c r="F17">
-        <v>60.26135455249485</v>
+        <v>67.75337153489302</v>
       </c>
       <c r="G17">
-        <v>1.775238809501132</v>
+        <v>3.87219528617879</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>45.18687037782787</v>
+        <v>51.77004735155219</v>
       </c>
       <c r="J17">
-        <v>9.511904571513632</v>
+        <v>9.43644199984379</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.69095686554126</v>
+        <v>8.694469596504877</v>
       </c>
       <c r="M17">
-        <v>122.2459903767649</v>
+        <v>74.85558251359457</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.34619891907551</v>
+        <v>5.661067076323194</v>
       </c>
       <c r="D18">
-        <v>12.08575763802498</v>
+        <v>8.052859154946956</v>
       </c>
       <c r="E18">
-        <v>15.69292530131627</v>
+        <v>9.757857610732334</v>
       </c>
       <c r="F18">
-        <v>60.26135455249485</v>
+        <v>67.95325947530056</v>
       </c>
       <c r="G18">
-        <v>1.775238809501132</v>
+        <v>3.874778658395972</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>45.18687037782787</v>
+        <v>51.92032457987344</v>
       </c>
       <c r="J18">
-        <v>9.511904571513632</v>
+        <v>9.448211690425625</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.69095686554126</v>
+        <v>8.681406134259197</v>
       </c>
       <c r="M18">
-        <v>122.2459903767649</v>
+        <v>74.21541917031225</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.34619891907551</v>
+        <v>5.647608716875911</v>
       </c>
       <c r="D19">
-        <v>12.08575763802498</v>
+        <v>8.047502536402273</v>
       </c>
       <c r="E19">
-        <v>15.69292530131627</v>
+        <v>9.734520079940268</v>
       </c>
       <c r="F19">
-        <v>60.26135455249485</v>
+        <v>68.02165982376279</v>
       </c>
       <c r="G19">
-        <v>1.775238809501132</v>
+        <v>3.875657373448045</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>45.18687037782787</v>
+        <v>51.97172385481477</v>
       </c>
       <c r="J19">
-        <v>9.511904571513632</v>
+        <v>9.452246019207342</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.69095686554126</v>
+        <v>8.677010291792323</v>
       </c>
       <c r="M19">
-        <v>122.2459903767649</v>
+        <v>73.99747516509959</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.34619891907551</v>
+        <v>5.708113458335221</v>
       </c>
       <c r="D20">
-        <v>12.08575763802498</v>
+        <v>8.071933257253223</v>
       </c>
       <c r="E20">
-        <v>15.69292530131627</v>
+        <v>9.839172817845222</v>
       </c>
       <c r="F20">
-        <v>60.26135455249485</v>
+        <v>67.71672124563376</v>
       </c>
       <c r="G20">
-        <v>1.775238809501132</v>
+        <v>3.871719069310795</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.18687037782787</v>
+        <v>51.7424815563537</v>
       </c>
       <c r="J20">
-        <v>9.511904571513632</v>
+        <v>9.43428718405881</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.69095686554126</v>
+        <v>8.696900271543841</v>
       </c>
       <c r="M20">
-        <v>122.2459903767649</v>
+        <v>74.97349211791939</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.34619891907551</v>
+        <v>5.910190391930864</v>
       </c>
       <c r="D21">
-        <v>12.08575763802498</v>
+        <v>8.159730176977192</v>
       </c>
       <c r="E21">
-        <v>15.69292530131627</v>
+        <v>10.18413559370571</v>
       </c>
       <c r="F21">
-        <v>60.26135455249485</v>
+        <v>66.74340782057465</v>
       </c>
       <c r="G21">
-        <v>1.775238809501132</v>
+        <v>3.85876308995543</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>45.18687037782787</v>
+        <v>51.00897738073229</v>
       </c>
       <c r="J21">
-        <v>9.511904571513632</v>
+        <v>9.377419210294079</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.69095686554126</v>
+        <v>8.765616426892485</v>
       </c>
       <c r="M21">
-        <v>122.2459903767649</v>
+        <v>78.16829077682893</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.34619891907551</v>
+        <v>6.041161234934413</v>
       </c>
       <c r="D22">
-        <v>12.08575763802498</v>
+        <v>8.221386906612626</v>
       </c>
       <c r="E22">
-        <v>15.69292530131627</v>
+        <v>10.40440102202188</v>
       </c>
       <c r="F22">
-        <v>60.26135455249485</v>
+        <v>66.14675483848316</v>
       </c>
       <c r="G22">
-        <v>1.775238809501132</v>
+        <v>3.850496460311455</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.18687037782787</v>
+        <v>50.55780420461313</v>
       </c>
       <c r="J22">
-        <v>9.511904571513632</v>
+        <v>9.34289012463687</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.69095686554126</v>
+        <v>8.811928198812209</v>
       </c>
       <c r="M22">
-        <v>122.2459903767649</v>
+        <v>80.19195154883907</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.34619891907551</v>
+        <v>5.971372009034657</v>
       </c>
       <c r="D23">
-        <v>12.08575763802498</v>
+        <v>8.188087361768325</v>
       </c>
       <c r="E23">
-        <v>15.69292530131627</v>
+        <v>10.28732943672109</v>
       </c>
       <c r="F23">
-        <v>60.26135455249485</v>
+        <v>66.46150354342328</v>
       </c>
       <c r="G23">
-        <v>1.775238809501132</v>
+        <v>3.854890465791032</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.18687037782787</v>
+        <v>50.79596546366209</v>
       </c>
       <c r="J23">
-        <v>9.511904571513632</v>
+        <v>9.361074267261479</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.69095686554126</v>
+        <v>8.787082824329048</v>
       </c>
       <c r="M23">
-        <v>122.2459903767649</v>
+        <v>79.11784934705555</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.34619891907551</v>
+        <v>5.704794855708111</v>
       </c>
       <c r="D24">
-        <v>12.08575763802498</v>
+        <v>8.070570204771069</v>
       </c>
       <c r="E24">
-        <v>15.69292530131627</v>
+        <v>9.833450209498974</v>
       </c>
       <c r="F24">
-        <v>60.26135455249485</v>
+        <v>67.73327736698623</v>
       </c>
       <c r="G24">
-        <v>1.775238809501132</v>
+        <v>3.871934290715874</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.18687037782787</v>
+        <v>51.75493437804053</v>
       </c>
       <c r="J24">
-        <v>9.511904571513632</v>
+        <v>9.435260461424368</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.69095686554126</v>
+        <v>8.695800888882426</v>
       </c>
       <c r="M24">
-        <v>122.2459903767649</v>
+        <v>74.9202079130644</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.34619891907551</v>
+        <v>5.413853175747871</v>
       </c>
       <c r="D25">
-        <v>12.08575763802498</v>
+        <v>7.962025755682467</v>
       </c>
       <c r="E25">
-        <v>15.69292530131627</v>
+        <v>9.323147040927061</v>
       </c>
       <c r="F25">
-        <v>60.26135455249485</v>
+        <v>69.26651003094373</v>
       </c>
       <c r="G25">
-        <v>1.775238809501132</v>
+        <v>3.891213044456442</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>45.18687037782787</v>
+        <v>52.90514984038943</v>
       </c>
       <c r="J25">
-        <v>9.511904571513632</v>
+        <v>9.526289519698926</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.69095686554126</v>
+        <v>8.603394601576939</v>
       </c>
       <c r="M25">
-        <v>122.2459903767649</v>
+        <v>70.12576973934311</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_99/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.198314948599565</v>
+        <v>8.261610744049973</v>
       </c>
       <c r="D2">
-        <v>7.897489847046764</v>
+        <v>9.292077149333936</v>
       </c>
       <c r="E2">
-        <v>8.93155618175153</v>
+        <v>12.98301512316752</v>
       </c>
       <c r="F2">
-        <v>70.52646320639889</v>
+        <v>42.19169576534161</v>
       </c>
       <c r="G2">
-        <v>3.906213214409895</v>
+        <v>1.945308305386434</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>53.84651163312628</v>
+        <v>31.42643913616044</v>
       </c>
       <c r="J2">
-        <v>9.602474674615609</v>
+        <v>7.476231976796481</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.540587365727752</v>
+        <v>8.75556296351167</v>
       </c>
       <c r="M2">
-        <v>66.37944984824257</v>
+        <v>100.6876800826891</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.052345454364529</v>
+        <v>7.471940330754465</v>
       </c>
       <c r="D3">
-        <v>7.863146849621405</v>
+        <v>8.292576084940258</v>
       </c>
       <c r="E3">
-        <v>8.657496921354131</v>
+        <v>11.88514512345556</v>
       </c>
       <c r="F3">
-        <v>71.45863115067127</v>
+        <v>37.86563631544495</v>
       </c>
       <c r="G3">
-        <v>3.916898525676623</v>
+        <v>2.001455980317637</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>54.54113175324464</v>
+        <v>28.07372000952499</v>
       </c>
       <c r="J3">
-        <v>9.659684814723612</v>
+        <v>6.748626918883039</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.501297239242664</v>
+        <v>8.010179533224191</v>
       </c>
       <c r="M3">
-        <v>63.71465339034275</v>
+        <v>92.33027221930533</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.963110341199064</v>
+        <v>7.002909365811568</v>
       </c>
       <c r="D4">
-        <v>7.846607481981634</v>
+        <v>7.712484339804327</v>
       </c>
       <c r="E4">
-        <v>8.485422718989593</v>
+        <v>11.21757588016141</v>
       </c>
       <c r="F4">
-        <v>72.06856612094353</v>
+        <v>36.35841621753633</v>
       </c>
       <c r="G4">
-        <v>3.923721037419392</v>
+        <v>2.032870960747972</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>54.9948945358271</v>
+        <v>27.11382935517974</v>
       </c>
       <c r="J4">
-        <v>9.697523365489671</v>
+        <v>6.325128123012008</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.478792269695928</v>
+        <v>7.564642164176462</v>
       </c>
       <c r="M4">
-        <v>62.02019375725468</v>
+        <v>87.30036436188327</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.92689865809255</v>
+        <v>6.813143651368815</v>
       </c>
       <c r="D5">
-        <v>7.840996528909931</v>
+        <v>7.480569477238578</v>
       </c>
       <c r="E5">
-        <v>8.414425498958318</v>
+        <v>10.94440486909204</v>
       </c>
       <c r="F5">
-        <v>72.32642482199192</v>
+        <v>35.9011801072722</v>
       </c>
       <c r="G5">
-        <v>3.926567825991617</v>
+        <v>2.045187344313764</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>55.18656710032047</v>
+        <v>26.83657277129765</v>
       </c>
       <c r="J5">
-        <v>9.713619044758612</v>
+        <v>6.155409020047816</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.470029273197541</v>
+        <v>7.383819935948129</v>
       </c>
       <c r="M5">
-        <v>61.31571528457734</v>
+        <v>85.25280742009181</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.920896552811271</v>
+        <v>6.781660714398767</v>
       </c>
       <c r="D6">
-        <v>7.840132558985211</v>
+        <v>7.442247462561939</v>
       </c>
       <c r="E6">
-        <v>8.402586060131952</v>
+        <v>10.89891778379575</v>
       </c>
       <c r="F6">
-        <v>72.36980004198553</v>
+        <v>35.83373687582125</v>
       </c>
       <c r="G6">
-        <v>3.927044574819644</v>
+        <v>2.0472091191574</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>55.2187998544518</v>
+        <v>26.79665381101961</v>
       </c>
       <c r="J6">
-        <v>9.716332402735102</v>
+        <v>6.127337189769327</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.468598843414913</v>
+        <v>7.353790513591941</v>
       </c>
       <c r="M6">
-        <v>61.19791498867772</v>
+        <v>84.9124525593066</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.962621288099344</v>
+        <v>7.000347182432176</v>
       </c>
       <c r="D7">
-        <v>7.846527260136887</v>
+        <v>7.709342458683105</v>
       </c>
       <c r="E7">
-        <v>8.484468659849419</v>
+        <v>11.21389916079186</v>
       </c>
       <c r="F7">
-        <v>72.07200620037626</v>
+        <v>36.35166058962775</v>
       </c>
       <c r="G7">
-        <v>3.923759159720765</v>
+        <v>2.033038747367305</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>54.99745224629395</v>
+        <v>27.10966425117622</v>
       </c>
       <c r="J7">
-        <v>9.697737706773076</v>
+        <v>6.322830620783662</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.478672436135405</v>
+        <v>7.562202841665054</v>
       </c>
       <c r="M7">
-        <v>62.01074852110496</v>
+        <v>87.27276470198305</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.147935400058694</v>
+        <v>7.983999491195772</v>
       </c>
       <c r="D8">
-        <v>7.884696463454653</v>
+        <v>8.937345614044936</v>
       </c>
       <c r="E8">
-        <v>8.837895274092347</v>
+        <v>12.60095298356095</v>
       </c>
       <c r="F8">
-        <v>70.83998488047506</v>
+        <v>40.4209117364855</v>
       </c>
       <c r="G8">
-        <v>3.90984365954376</v>
+        <v>1.965526134614413</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>54.08029893371777</v>
+        <v>30.02443946067094</v>
       </c>
       <c r="J8">
-        <v>9.621634491465652</v>
+        <v>7.21818212437065</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.52670453121611</v>
+        <v>8.494221098890497</v>
       </c>
       <c r="M8">
-        <v>65.47309843164243</v>
+        <v>97.76661386200247</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.51217719704173</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D9">
-        <v>7.996176813516407</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E9">
-        <v>9.497651815102051</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F9">
-        <v>68.72919080384573</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G9">
-        <v>3.884596223187341</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>52.50269999817293</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J9">
-        <v>9.494183864829669</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.633710855245027</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M9">
-        <v>71.775380337377</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.777485499830691</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D10">
-        <v>8.101023762939075</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E10">
-        <v>9.958354598976525</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F10">
-        <v>67.37498966563457</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G10">
-        <v>3.867239571461962</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>51.4852720846751</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J10">
-        <v>9.414242840509178</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.720101443480219</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M10">
-        <v>76.08102422280987</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.89715619657213</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D11">
-        <v>8.153792122913559</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E11">
-        <v>10.16208039864228</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F11">
-        <v>66.80420437405306</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G11">
-        <v>3.859590807414081</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>51.0548811490119</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J11">
-        <v>9.380951529969979</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.761081897178613</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M11">
-        <v>77.96499559874977</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.942287124482649</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D12">
-        <v>8.174507903189186</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E12">
-        <v>10.23833982501721</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F12">
-        <v>66.59480907937551</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G12">
-        <v>3.85672892668174</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>50.89672743809314</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J12">
-        <v>9.368796462227612</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.7768408801494</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M12">
-        <v>78.66739442449371</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.932576214698847</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D13">
-        <v>8.170013718318614</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E13">
-        <v>10.22195611129865</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F13">
-        <v>66.63960188133322</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G13">
-        <v>3.85734376342523</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>50.9305713242622</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J13">
-        <v>9.371394026998479</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.773436218898354</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M13">
-        <v>78.51661424811897</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.900873078331341</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D14">
-        <v>8.15548170416252</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E14">
-        <v>10.16837232699514</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F14">
-        <v>66.78684058438226</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G14">
-        <v>3.859354672163567</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>51.04177205776024</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J14">
-        <v>9.379942416488667</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.762373582977196</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M14">
-        <v>78.02300463488999</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.881428705350233</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D15">
-        <v>8.146676046138026</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E15">
-        <v>10.13543392984864</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F15">
-        <v>66.87791495156651</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G15">
-        <v>3.860590880834189</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>51.11051921220986</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J15">
-        <v>9.385237663794896</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.755628696387985</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M15">
-        <v>77.71921200541398</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.769640784662915</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D16">
-        <v>8.09767769509836</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E16">
-        <v>9.944918853106657</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F16">
-        <v>67.41322257252543</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G16">
-        <v>3.867744322709319</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>51.51406540582175</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J16">
-        <v>9.416481167571055</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.717456999987983</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M16">
-        <v>75.95637405744843</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.700772277676957</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D17">
-        <v>8.068921558010032</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E17">
-        <v>9.826510998177765</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F17">
-        <v>67.75337153489302</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G17">
-        <v>3.87219528617879</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>51.77004735155219</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J17">
-        <v>9.43644199984379</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.694469596504877</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M17">
-        <v>74.85558251359457</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.661067076323194</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D18">
-        <v>8.052859154946956</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E18">
-        <v>9.757857610732334</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F18">
-        <v>67.95325947530056</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G18">
-        <v>3.874778658395972</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>51.92032457987344</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J18">
-        <v>9.448211690425625</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.681406134259197</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M18">
-        <v>74.21541917031225</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.647608716875911</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D19">
-        <v>8.047502536402273</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E19">
-        <v>9.734520079940268</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F19">
-        <v>68.02165982376279</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G19">
-        <v>3.875657373448045</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>51.97172385481477</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J19">
-        <v>9.452246019207342</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.677010291792323</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M19">
-        <v>73.99747516509959</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.708113458335221</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D20">
-        <v>8.071933257253223</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E20">
-        <v>9.839172817845222</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F20">
-        <v>67.71672124563376</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G20">
-        <v>3.871719069310795</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>51.7424815563537</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J20">
-        <v>9.43428718405881</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.696900271543841</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M20">
-        <v>74.97349211791939</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.910190391930864</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D21">
-        <v>8.159730176977192</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E21">
-        <v>10.18413559370571</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F21">
-        <v>66.74340782057465</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G21">
-        <v>3.85876308995543</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>51.00897738073229</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J21">
-        <v>9.377419210294079</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.765616426892485</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M21">
-        <v>78.16829077682893</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.041161234934413</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D22">
-        <v>8.221386906612626</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E22">
-        <v>10.40440102202188</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F22">
-        <v>66.14675483848316</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G22">
-        <v>3.850496460311455</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>50.55780420461313</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J22">
-        <v>9.34289012463687</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.811928198812209</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M22">
-        <v>80.19195154883907</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.971372009034657</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D23">
-        <v>8.188087361768325</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E23">
-        <v>10.28732943672109</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F23">
-        <v>66.46150354342328</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G23">
-        <v>3.854890465791032</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>50.79596546366209</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J23">
-        <v>9.361074267261479</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.787082824329048</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M23">
-        <v>79.11784934705555</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.704794855708111</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D24">
-        <v>8.070570204771069</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E24">
-        <v>9.833450209498974</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F24">
-        <v>67.73327736698623</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G24">
-        <v>3.871934290715874</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>51.75493437804053</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J24">
-        <v>9.435260461424368</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.695800888882426</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M24">
-        <v>74.9202079130644</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.413853175747871</v>
+        <v>10.34619891907538</v>
       </c>
       <c r="D25">
-        <v>7.962025755682467</v>
+        <v>12.08575763802454</v>
       </c>
       <c r="E25">
-        <v>9.323147040927061</v>
+        <v>15.69292530131613</v>
       </c>
       <c r="F25">
-        <v>69.26651003094373</v>
+        <v>60.26135455249258</v>
       </c>
       <c r="G25">
-        <v>3.891213044456442</v>
+        <v>1.775238809500998</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>52.90514984038943</v>
+        <v>45.18687037782614</v>
       </c>
       <c r="J25">
-        <v>9.526289519698926</v>
+        <v>9.511904571513503</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.603394601576939</v>
+        <v>10.69095686554118</v>
       </c>
       <c r="M25">
-        <v>70.12576973934311</v>
+        <v>122.2459903767638</v>
       </c>
       <c r="N25">
         <v>0</v>
